--- a/biology/Microbiologie/Sterkiella_histriomuscorum/Sterkiella_histriomuscorum.xlsx
+++ b/biology/Microbiologie/Sterkiella_histriomuscorum/Sterkiella_histriomuscorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sterkiella histriomuscorum est une espèce de ciliés de la famille de Oxytrichidae. Il s'agit d'une espèce marine. En Australie, on la trouve dans les états du Queensland et de la Tasmanie.
@@ -512,7 +524,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(de) Wilhelm Foissner, Hubert Blatterer, Helmut Berger &amp; Fritz Kohmann, « Taxonomische und ökologische Revision der Ciliaten des Saprobiensystems - Band I: Cyrtophorida, Oligotrichida, Hypotrichia, Colpodea », Informationsberichte des Bayerischen Landesamtes für Wasserwirtschaft, vol. 91, no 1,‎ 1991, p. 1-471.</t>
         </is>
